--- a/data/input/absenteeism_data_3.xlsx
+++ b/data/input/absenteeism_data_3.xlsx
@@ -476,16 +476,16 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>91614</v>
+        <v>68301</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Alexia Castro</t>
+          <t>Davi Rodrigues</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -494,138 +494,138 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45084</v>
+        <v>45104</v>
       </c>
       <c r="G2" t="n">
-        <v>10021.82</v>
+        <v>10674.45</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>62582</v>
+        <v>10839</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ian Souza</t>
+          <t>Dr. Pedro Ferreira</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45093</v>
+        <v>45083</v>
       </c>
       <c r="G3" t="n">
-        <v>9086.48</v>
+        <v>3686.3</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>9312</v>
+        <v>71524</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ana Castro</t>
+          <t>Clara da Mata</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45078</v>
+        <v>45094</v>
       </c>
       <c r="G4" t="n">
-        <v>12254.79</v>
+        <v>3600.45</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2756</v>
+        <v>72454</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Ana Laura Ferreira</t>
+          <t>João Lucas Azevedo</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45090</v>
+        <v>45088</v>
       </c>
       <c r="G5" t="n">
-        <v>6921.03</v>
+        <v>10480.21</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>41806</v>
+        <v>62267</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Paulo Dias</t>
+          <t>Lara Rodrigues</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45099</v>
+        <v>45103</v>
       </c>
       <c r="G6" t="n">
-        <v>4095.51</v>
+        <v>3078.16</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>89783</v>
+        <v>43152</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Bruno Fernandes</t>
+          <t>Murilo Pereira</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -635,133 +635,133 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45078</v>
+        <v>45080</v>
       </c>
       <c r="G7" t="n">
-        <v>9849.84</v>
+        <v>4106.91</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>3748</v>
+        <v>14644</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Heitor Ferreira</t>
+          <t>Srta. Laís da Mata</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45087</v>
+        <v>45078</v>
       </c>
       <c r="G8" t="n">
-        <v>11366.42</v>
+        <v>6839.2</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>47027</v>
+        <v>92199</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Isabella Pinto</t>
+          <t>Stephany Nogueira</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E9" t="n">
         <v>4</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45098</v>
+        <v>45099</v>
       </c>
       <c r="G9" t="n">
-        <v>6908.08</v>
+        <v>10175.57</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>6706</v>
+        <v>53316</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Stephany Castro</t>
+          <t>Luiz Gustavo Peixoto</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45098</v>
+        <v>45103</v>
       </c>
       <c r="G10" t="n">
-        <v>10091.64</v>
+        <v>8695.440000000001</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>29688</v>
+        <v>90960</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Sra. Kamilly Barbosa</t>
+          <t>Kamilly Martins</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45087</v>
+        <v>45104</v>
       </c>
       <c r="G11" t="n">
-        <v>8056.25</v>
+        <v>4372.14</v>
       </c>
     </row>
   </sheetData>
